--- a/Datos/Database by set/Set with text box/Xlsx sets/Duel Decks Blessed vs. Cursed (DDQ).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Duel Decks Blessed vs. Cursed (DDQ).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,21 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Elemental Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Token Creature — Elemental Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3/1</t>
+          <t>('Elemental Shaman', ['Token Creature — Elemental Shaman', '3/1'])</t>
         </is>
       </c>
     </row>
